--- a/data/trans_media/IQ09_A-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ09_A-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,93</t>
+          <t>2,62; 10,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,1</t>
+          <t>0,56; 5,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 8,61</t>
+          <t>1,22; 8,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 10,08</t>
+          <t>2,88; 10,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,89</t>
+          <t>1,33; 5,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,42</t>
+          <t>1,71; 5,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,68</t>
+          <t>0,43; 2,79</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,86</t>
+          <t>1,25; 5,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,23</t>
+          <t>1,52; 4,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,36</t>
+          <t>1,05; 4,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,89</t>
+          <t>3,41; 7,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,5</t>
+          <t>0,49; 2,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,96</t>
+          <t>1,15; 2,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,84</t>
+          <t>0,6; 4,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,89</t>
+          <t>1,44; 5,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,55</t>
+          <t>1,26; 3,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,32</t>
+          <t>1,59; 3,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,42</t>
+          <t>1,07; 3,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,2</t>
+          <t>3,02; 6,08</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,43</t>
+          <t>0,94; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 9,55</t>
+          <t>0,32; 10,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,75</t>
+          <t>0,88; 6,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,69</t>
+          <t>1,18; 6,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,52</t>
+          <t>0,53; 3,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,67</t>
+          <t>1,64; 6,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,5</t>
+          <t>1,38; 5,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,41</t>
+          <t>0,57; 7,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,08</t>
+          <t>1,07; 4,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,05</t>
+          <t>1,99; 5,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,91</t>
+          <t>2,04; 4,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,1</t>
+          <t>1,7; 4,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,78</t>
+          <t>1,28; 3,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,48</t>
+          <t>2,75; 5,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,65</t>
+          <t>1,31; 4,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,12</t>
+          <t>1,32; 3,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,17</t>
+          <t>0,91; 3,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,07</t>
+          <t>1,98; 4,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,1</t>
+          <t>2,09; 4,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,26</t>
+          <t>1,74; 3,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,97</t>
+          <t>1,38; 3,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,99</t>
+          <t>2,75; 5,1</t>
         </is>
       </c>
     </row>
